--- a/biology/Mycologie/Nicolò_Oppicelli/Nicolò_Oppicelli.xlsx
+++ b/biology/Mycologie/Nicolò_Oppicelli/Nicolò_Oppicelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicol%C3%B2_Oppicelli</t>
+          <t>Nicolò_Oppicelli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolò Oppicelli, né le 11 mars 1987 à Gênes (Italie), est un mycologue, naturaliste et journaliste italien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicol%C3%B2_Oppicelli</t>
+          <t>Nicolò_Oppicelli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chercheur en sciences naturelles, il se spécialise dans l'étude de la biodiversité des champignons présent en Italie et dans les régions françaises voisines (Provence-Alpes-Côte d'Azur, Hautes Alpes), en relation avec des projets liés à leur conservation. Mycologue, est l'auteur de divers articles scientifiques; depuis 2015 directeur de l'historique Exposition Nationale du Champignon du Ceva[1]; conseiller national de l'Association mycologique Bresadola [2] et, depuis 2020, un invité et collaborateur régulier du programme à la télévision italienne Rai 3 Geo[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chercheur en sciences naturelles, il se spécialise dans l'étude de la biodiversité des champignons présent en Italie et dans les régions françaises voisines (Provence-Alpes-Côte d'Azur, Hautes Alpes), en relation avec des projets liés à leur conservation. Mycologue, est l'auteur de divers articles scientifiques; depuis 2015 directeur de l'historique Exposition Nationale du Champignon du Ceva; conseiller national de l'Association mycologique Bresadola  et, depuis 2020, un invité et collaborateur régulier du programme à la télévision italienne Rai 3 Geo,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicol%C3%B2_Oppicelli</t>
+          <t>Nicolò_Oppicelli</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Curiosité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2015, il a contribué à la publication sur la création du nouveau genre de champignons Imperator[5],[6] et la recombinaison des espèces qui y sont incluses, parmi lesquelles Imperator torosus[7], Imperator luteocupreus[8], Imperator rhodopurpureus[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, il a contribué à la publication sur la création du nouveau genre de champignons Imperator, et la recombinaison des espèces qui y sont incluses, parmi lesquelles Imperator torosus, Imperator luteocupreus, Imperator rhodopurpureus.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nicol%C3%B2_Oppicelli</t>
+          <t>Nicolò_Oppicelli</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2011 : Funghi per Tutti, vol. I &amp; II (Erredi Grafiche, Gênes)
 2012 : Il manuale del cercatore di Funghi (Erredi Grafiche, Gênes)
